--- a/data/trans_orig/ProblemasDormirP33b-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AEA54C6-6F6F-4ECE-A02E-DA30EA8F352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3229A6-8F6B-42D8-A646-7EDCA40CB0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA6621C5-FDF1-42E4-9732-4909277640C3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4763C011-2D83-4C1B-913B-1A76D696103F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>5,61%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>94,39%</t>
   </si>
   <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
   </si>
   <si>
     <t>93,03%</t>
   </si>
   <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>6,69%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
   <si>
     <t>93,31%</t>
   </si>
   <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>89,65%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>10,71%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
   </si>
   <si>
     <t>89,29%</t>
   </si>
   <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>11,49%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>88,51%</t>
   </si>
   <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,160 +308,160 @@
     <t>16,41%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
     <t>20,11%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E003717-137E-4688-B4CD-F89CB7FF80B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9381B5AB-EC4F-41E7-867F-1429F82FAE0F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1543,7 +1543,7 @@
         <v>1516</v>
       </c>
       <c r="N14" s="7">
-        <v>1236531</v>
+        <v>1236530</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1594,7 +1594,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1823,7 +1823,7 @@
         <v>795</v>
       </c>
       <c r="D20" s="7">
-        <v>541831</v>
+        <v>541832</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1874,7 +1874,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2008,7 +2008,7 @@
         <v>7071</v>
       </c>
       <c r="N23" s="7">
-        <v>5995768</v>
+        <v>5995767</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>139</v>
@@ -2059,7 +2059,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/ProblemasDormirP33b-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3229A6-8F6B-42D8-A646-7EDCA40CB0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4187E6E8-D3BA-4B58-8B1D-7BA3C5895A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4763C011-2D83-4C1B-913B-1A76D696103F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C60CEB82-D6D5-47B1-8616-A4F8B04D5BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9381B5AB-EC4F-41E7-867F-1429F82FAE0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB309B64-8342-441B-BE8C-1566B52BD7AF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/ProblemasDormirP33b-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4187E6E8-D3BA-4B58-8B1D-7BA3C5895A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{186EABD7-64D7-4095-8548-AE60B3103DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C60CEB82-D6D5-47B1-8616-A4F8B04D5BFB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28AF0928-057E-4CCD-9548-580FAF527BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,34 +68,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>94,39%</t>
   </si>
   <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>93,03%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>6,69%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>93,31%</t>
   </si>
   <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>89,65%</t>
   </si>
   <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>10,71%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
   </si>
   <si>
     <t>89,29%</t>
   </si>
   <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>11,49%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>15,95%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>88,51%</t>
   </si>
   <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>16,41%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>83,59%</t>
   </si>
   <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>72,0%</t>
   </si>
   <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
   </si>
   <si>
     <t>77,81%</t>
   </si>
   <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,103 +365,103 @@
     <t>22,35%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>29,08%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>77,65%</t>
   </si>
   <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>70,92%</t>
   </si>
   <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
   </si>
   <si>
     <t>73,65%</t>
   </si>
   <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB309B64-8342-441B-BE8C-1566B52BD7AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B68AA16-875A-4725-B497-406A3E14BCA5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1543,7 +1543,7 @@
         <v>1516</v>
       </c>
       <c r="N14" s="7">
-        <v>1236530</v>
+        <v>1236531</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1594,7 +1594,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1823,7 +1823,7 @@
         <v>795</v>
       </c>
       <c r="D20" s="7">
-        <v>541832</v>
+        <v>541831</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1874,7 +1874,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2008,7 +2008,7 @@
         <v>7071</v>
       </c>
       <c r="N23" s="7">
-        <v>5995767</v>
+        <v>5995768</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>139</v>
@@ -2059,7 +2059,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/ProblemasDormirP33b-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{186EABD7-64D7-4095-8548-AE60B3103DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0378A1C9-C794-4158-BF38-7E7BF2AD9E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28AF0928-057E-4CCD-9548-580FAF527BFF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0B425688-4BAC-466C-B0A4-76CE5B3C40F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>Población con problemas para dormir a diario en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -65,403 +65,448 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>45/54</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>88,51%</t>
   </si>
   <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,8 +921,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B68AA16-875A-4725-B497-406A3E14BCA5}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABA30D9-BB71-4375-BDBB-853E3131574B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -997,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>21198</v>
+        <v>22376</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1012,7 +1057,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>29845</v>
+        <v>26262</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1027,7 +1072,7 @@
         <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>51043</v>
+        <v>48638</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1048,7 +1093,7 @@
         <v>162</v>
       </c>
       <c r="D5" s="7">
-        <v>356481</v>
+        <v>377611</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1063,7 +1108,7 @@
         <v>191</v>
       </c>
       <c r="I5" s="7">
-        <v>325112</v>
+        <v>286938</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1078,7 +1123,7 @@
         <v>353</v>
       </c>
       <c r="N5" s="7">
-        <v>681593</v>
+        <v>664549</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1099,7 +1144,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1114,7 +1159,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1129,7 +1174,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1152,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>28645</v>
+        <v>28203</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1167,7 +1212,7 @@
         <v>46</v>
       </c>
       <c r="I7" s="7">
-        <v>51651</v>
+        <v>46505</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1182,7 +1227,7 @@
         <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>80296</v>
+        <v>74707</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1203,7 +1248,7 @@
         <v>284</v>
       </c>
       <c r="D8" s="7">
-        <v>399751</v>
+        <v>395344</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1218,7 +1263,7 @@
         <v>415</v>
       </c>
       <c r="I8" s="7">
-        <v>447564</v>
+        <v>465588</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1233,7 +1278,7 @@
         <v>699</v>
       </c>
       <c r="N8" s="7">
-        <v>847315</v>
+        <v>860933</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1254,7 +1299,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1269,7 +1314,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1284,7 +1329,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1307,7 +1352,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>59700</v>
+        <v>56237</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1322,31 +1367,31 @@
         <v>117</v>
       </c>
       <c r="I10" s="7">
-        <v>79185</v>
+        <v>73374</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>168</v>
       </c>
       <c r="N10" s="7">
-        <v>138884</v>
+        <v>129611</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1358,46 +1403,46 @@
         <v>495</v>
       </c>
       <c r="D11" s="7">
-        <v>497552</v>
+        <v>480101</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>731</v>
       </c>
       <c r="I11" s="7">
-        <v>531262</v>
+        <v>518628</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1226</v>
       </c>
       <c r="N11" s="7">
-        <v>1028815</v>
+        <v>998729</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1409,7 +1454,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1424,7 +1469,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1439,7 +1484,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1453,7 +1498,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1462,46 +1507,46 @@
         <v>76</v>
       </c>
       <c r="D13" s="7">
-        <v>83203</v>
+        <v>77921</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>214</v>
       </c>
       <c r="I13" s="7">
-        <v>151518</v>
+        <v>137468</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
       </c>
       <c r="N13" s="7">
-        <v>234721</v>
+        <v>215389</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,46 +1558,46 @@
         <v>589</v>
       </c>
       <c r="D14" s="7">
-        <v>640787</v>
+        <v>809865</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>927</v>
       </c>
       <c r="I14" s="7">
-        <v>595743</v>
+        <v>575413</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1516</v>
       </c>
       <c r="N14" s="7">
-        <v>1236531</v>
+        <v>1385278</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1564,7 +1609,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1579,7 +1624,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1594,7 +1639,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1608,7 +1653,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1617,46 +1662,46 @@
         <v>107</v>
       </c>
       <c r="D16" s="7">
-        <v>98490</v>
+        <v>89600</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>261</v>
       </c>
       <c r="I16" s="7">
-        <v>167174</v>
+        <v>150677</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>368</v>
       </c>
       <c r="N16" s="7">
-        <v>265664</v>
+        <v>240277</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,46 +1713,46 @@
         <v>556</v>
       </c>
       <c r="D17" s="7">
-        <v>501667</v>
+        <v>471634</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>741</v>
       </c>
       <c r="I17" s="7">
-        <v>429889</v>
+        <v>397228</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1297</v>
       </c>
       <c r="N17" s="7">
-        <v>931556</v>
+        <v>868862</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,7 +1764,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1734,7 +1779,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1749,7 +1794,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1763,55 +1808,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>233</v>
+        <v>107</v>
       </c>
       <c r="D19" s="7">
-        <v>155923</v>
+        <v>66078</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>221</v>
+      </c>
+      <c r="I19" s="7">
+        <v>111957</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>523</v>
-      </c>
-      <c r="I19" s="7">
-        <v>298510</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>328</v>
+      </c>
+      <c r="N19" s="7">
+        <v>178035</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="7">
-        <v>756</v>
-      </c>
-      <c r="N19" s="7">
-        <v>454433</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,49 +1865,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>795</v>
+        <v>463</v>
       </c>
       <c r="D20" s="7">
-        <v>541831</v>
+        <v>302087</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>606</v>
+      </c>
+      <c r="I20" s="7">
+        <v>496411</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>1185</v>
-      </c>
-      <c r="I20" s="7">
-        <v>728127</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1069</v>
+      </c>
+      <c r="N20" s="7">
+        <v>798498</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>1980</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1269959</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1886,10 +1931,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1901,10 +1946,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1918,34 +1963,34 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>495</v>
+        <v>126</v>
       </c>
       <c r="D22" s="7">
-        <v>447158</v>
+        <v>75299</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>302</v>
+      </c>
+      <c r="I22" s="7">
+        <v>151052</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="H22" s="7">
-        <v>1177</v>
-      </c>
-      <c r="I22" s="7">
-        <v>777883</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>129</v>
@@ -1954,10 +1999,10 @@
         <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>1672</v>
+        <v>428</v>
       </c>
       <c r="N22" s="7">
-        <v>1225041</v>
+        <v>226351</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>131</v>
@@ -1975,10 +2020,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2881</v>
+        <v>332</v>
       </c>
       <c r="D23" s="7">
-        <v>2938070</v>
+        <v>207460</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>134</v>
@@ -1990,34 +2035,34 @@
         <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>4190</v>
+        <v>579</v>
       </c>
       <c r="I23" s="7">
-        <v>3057698</v>
+        <v>274779</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>7071</v>
+        <v>911</v>
       </c>
       <c r="N23" s="7">
-        <v>5995768</v>
+        <v>482239</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,63 +2071,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>495</v>
+      </c>
+      <c r="D25" s="7">
+        <v>415715</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1177</v>
+      </c>
+      <c r="I25" s="7">
+        <v>697294</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1672</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1113009</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2881</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3044102</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4190</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3014986</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7071</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6059088</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
